--- a/app/config/tables/medical_consult/forms/medical_consult/medical_consult.xlsx
+++ b/app/config/tables/medical_consult/forms/medical_consult/medical_consult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaochongbin/WebstormProjects/app-designer11/app/config/tables/medical_consult/forms/medical_consult/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ray\Research\app-designer\app\config\tables\medical_consult\forms\medical_consult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE43637-88C9-5D44-885E-D86467A264CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ADC306-4327-4278-93C3-DDBAD94331D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="460" windowWidth="14280" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -291,14 +291,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -351,7 +351,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,7 +367,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -665,11 +665,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -896,11 +896,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -1093,11 +1093,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
